--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/10/seed1/result_data_KNN.xlsx
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.532000000000001</v>
+        <v>-7.393000000000001</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.569999999999999</v>
+        <v>-7.612</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.356</v>
+        <v>-8.241999999999999</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
